--- a/pyNews/source/doencas_info.xlsx
+++ b/pyNews/source/doencas_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\UnB\Sistemas de Informação\SI\SI\pyNews\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\UnB\Sistemas de Informação\SI\#Projeto\NewsRanking\pyNews\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F8249-2974-48B2-988F-97671584EB3F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC2B9B2-0DD8-45ED-8DFE-D0DFF6D1E23A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Nome da doenca</t>
   </si>
@@ -49,15 +49,6 @@
     <t>Interesse atual</t>
   </si>
   <si>
-    <t>exemplo</t>
-  </si>
-  <si>
-    <t>examples</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
     <t>dengue</t>
   </si>
   <si>
@@ -157,17 +148,65 @@
     <t>vicio</t>
   </si>
   <si>
-    <t>cancer</t>
+    <t>catastrofe</t>
+  </si>
+  <si>
+    <t>depressao</t>
+  </si>
+  <si>
+    <t>doenca</t>
+  </si>
+  <si>
+    <t>agravo</t>
+  </si>
+  <si>
+    <t>doenca mental</t>
+  </si>
+  <si>
+    <t>drogas</t>
+  </si>
+  <si>
+    <t>dst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enchente </t>
+  </si>
+  <si>
+    <t>enchentes</t>
+  </si>
+  <si>
+    <t>epidemia</t>
+  </si>
+  <si>
+    <t>gonorreia</t>
+  </si>
+  <si>
+    <t>imundacao</t>
+  </si>
+  <si>
+    <t>Sindrôme Respiratória Aguda; SRAG</t>
+  </si>
+  <si>
+    <t>medicamento</t>
+  </si>
+  <si>
+    <t>morte</t>
+  </si>
+  <si>
+    <t>surto</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>vacina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\-m"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,18 +217,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -216,13 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +564,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,36 +608,36 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43221</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43221</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43221</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43160</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -631,41 +655,41 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
         <v>4</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -691,10 +715,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -715,12 +736,12 @@
         <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -738,15 +759,15 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -764,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -772,36 +793,33 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -819,36 +837,39 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -871,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -879,85 +900,85 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -975,93 +996,93 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1079,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1087,7 +1108,10 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1108,15 +1132,12 @@
         <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1134,15 +1155,15 @@
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1160,15 +1181,15 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1186,41 +1207,41 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1241,12 +1262,12 @@
         <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1264,30 +1285,30 @@
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
@@ -1298,7 +1319,10 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1316,15 +1340,15 @@
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1342,15 +1366,15 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>43</v>
+      <c r="A31" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1368,22 +1392,408 @@
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="5"/>
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
